--- a/outputs/PITTSBURG3.xlsx
+++ b/outputs/PITTSBURG3.xlsx
@@ -425,17 +425,17 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Motivations, Information Processing Style, Computer Self-Efficacy
-Why: The image shows a project details page with folders and files, but it does not explicitly indicate where to find issues. Abi may not be motivated to explore unfamiliar sections without clear guidance due to their risk-averse nature and low computer self-efficacy. Additionally, the comprehensive information processing style means Abi would prefer clear, direct information on where to find issues rather than having to infer or search through various sections.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a project details page, which primarily lists files and folders related to the project. There is no clear indication or section that explicitly mentions "issues" or "bugs" that need to be addressed. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding a list of issues. Additionally, due to her low computer self-efficacy, she might not feel confident navigating through the project files to find the issues.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: The current page primarily shows files and folders related to the project but does not provide any clear indication that scrolling down will lead to finding a list of issues. Abi, with low computer self-efficacy, may not feel confident about randomly scrolling in hopes of finding the issues section. Additionally, Abi's comprehensive information processing style means they would prefer clear, direct instructions or indicators rather than uncertain actions like scrolling down without a clear purpose.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. She is likely to scroll down to gather more information and understand the context better. The page is straightforward and does not present any immediate barriers to scrolling, so Abi will likely take this action to see if more relevant information appears further down the page.</t>
         </is>
       </c>
     </row>
@@ -443,17 +443,17 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style, Motivations
-Why: After scrolling down the webpage, Abi will not find a list of issues or any indication that they are making progress toward finding issues. The page primarily contains information about the project and its files, with no clear mention or link to the issues section. This lack of direction may leave Abi feeling uncertain and unmotivated, particularly given their preference for clear, comprehensive information and low confidence in performing unfamiliar computing tasks.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down the webpage, Abi will not find any additional information related to finding a list of issues. The page primarily contains project details, files, and a brief description of the project. There is no section or indication of where to find issues. This lack of relevant information will make Abi feel that she is not making progress toward her goal. Given her motivation to accomplish tasks efficiently and her comprehensive information processing style, she will likely feel frustrated and uncertain about what to do next. Additionally, her low computer self-efficacy may further discourage her from continuing to search for the issues.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: The page does not provide clear instruction or indication that clicking the issue icon on the left side is the correct action to find the list of issues. Abi, with low computer self-efficacy, may not feel confident about clicking an icon without understanding its purpose. Additionally, Abi's comprehensive information processing style means they would prefer explicit guidance or labels explaining what each icon represents rather than having to infer its function. Without such information, Abi may hesitate to take this action.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The issue icon on the left side of the page is clearly labeled and visually distinct, making it relatively easy for Abi to identify. Given her comprehensive information processing style, Abi is likely to notice the icon and understand that clicking it could lead her to the list of issues. The page is straightforward and does not present any immediate barriers to clicking the icon, so Abi will likely take this action to see if it leads her to the relevant information.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: None of the Above
-Why: If Abi clicks on the issue icon on the left side and lands on this page, they will see a clear list of issues with relevant information such as issue titles, importance, labels, and dates. This will confirm to Abi that they are in the right place and making progress toward their goal of finding an issue to work on. The page provides comprehensive and organized information, aligning with Abi's need for clear and detailed information. Thus, Abi will know they did the right thing and have all the information needed to proceed.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the issue icon, Abi will be directed to a page that clearly lists various issues, along with details such as the issue title, importance, and status. This page provides comprehensive information that aligns with Abi's information processing style, allowing her to understand the context and specifics of each issue. The clear presentation of issues will make Abi feel that she has made progress toward her goal of finding an issue to work on. The page is well-organized and provides all the necessary information, which will help Abi feel confident that she did the right thing.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The image shows a list of issues with detailed information such as issue titles, importance levels, labels, and dates. Abi, who wants to find an issue to work on, will recognize that selecting an issue from this list is a logical and necessary step toward achieving their overall use case. The comprehensive presentation of information aligns with Abi's information processing style, making it clear that selecting an issue is the next step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists various issues with details such as the issue title, importance, and status. This aligns with Abi's motivation to find an issue to work on and her comprehensive information processing style. The organized presentation of issues will help Abi understand that selecting an issue is a logical next step toward achieving her overall goal. The page provides sufficient information for Abi to make an informed decision about which issue to work on.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page presents a comprehensive and organized list of issues with detailed information such as titles, importance, labels, and dates. This aligns well with Abi's comprehensive information processing style, making it clear that reading through the list is the appropriate next step. Furthermore, the information is presented in a clear and accessible manner, which will motivate Abi to proceed with this action toward selecting an issue to work on.</t>
+Facets: 2. Information Processing Style
+Why: The page is well-organized and presents a list of issues with clear titles, importance levels, and statuses. This layout aligns with Abi's comprehensive information processing style, allowing her to read through the list and gather the necessary information to make an informed decision. The page provides sufficient context and details for each issue, making it easy for Abi to understand what she needs to do at this step.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: Reading through the list of issues provides Abi with comprehensive and organized information, such as issue titles, importance levels, and labels, which aligns with their information processing style. Abi will be able to understand that they are making progress toward their goal of selecting an issue to work on. The clear presentation of details will help Abi feel confident that they are on the right track and have the necessary information to make an informed decision.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a clear and organized list of issues, each with detailed information such as the issue title, importance, and status. This layout aligns with Abi's comprehensive information processing style, allowing her to read through the list and gather the necessary information to make an informed decision. The detailed presentation of issues will help Abi feel that she is making progress toward her goal of selecting an issue to work on. The page provides sufficient context and details for each issue, making it easy for Abi to understand that she did the right thing and is on the right track.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page displays a list of issues with clear and detailed information, such as issue titles, importance, and labels, which aligns with Abi's preference for comprehensive information. It is evident that clicking on an issue will provide more details about that specific issue, making it a logical next step in the process of selecting an issue to work on. This clear organization and presentation of information will help Abi know what to do and feel confident in taking this action.</t>
+Facets: 2. Information Processing Style
+Why: The page is well-organized and presents a list of issues with clear titles, importance levels, and statuses. This layout aligns with Abi's comprehensive information processing style, allowing her to read through the list and gather the necessary information to make an informed decision. The detailed presentation of issues will help Abi feel that she is making progress toward her goal of selecting an issue to work on. The page provides sufficient context and details for each issue, making it easy for Abi to understand that she did the right thing and is on the right track.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Motivations, Computer Self-Efficacy
-Why: After clicking on an issue, Abi lands on a detailed issue page. However, the page does not provide comprehensive information about the issue at a glance. Relevant details such as labels, assignees, and related items are either missing or not clearly filled in. Abi, who prefers comprehensive information, may find it challenging to determine if they are making progress and have all the information needed to work on the issue. Additionally, the lack of clear and complete information may undermine Abi's confidence in their ability to proceed, given their lower computer self-efficacy.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on an issue, Abi lands on a page that provides some information about the issue, but it is not comprehensive. The page lacks detailed descriptions, steps to reproduce, or any context that would help Abi understand the issue fully. Given Abi's comprehensive information processing style, she would likely feel that the information provided is insufficient to make progress toward her goal. Additionally, due to her low computer self-efficacy, she might feel uncertain about what to do next or how to proceed with the limited information available. This could lead to frustration and a sense that she is not making progress.</t>
         </is>
       </c>
     </row>

--- a/outputs/PITTSBURG3.xlsx
+++ b/outputs/PITTSBURG3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with a list of files and some information about the project. ABI is looking to find a list of issues or where issues are located. This page does not explicitly indicate where to find issues or provide a list of issues. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not immediately recognize this page as a step toward finding issues. The lack of clear direction or indication about issues on this page would likely deter ABI from considering this as a step toward achieving the overall use case.</t>
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or section specifically labeled for "issues" or "tasks for newcomers." ABI, who prefers comprehensive information and is risk-averse, would not likely consider this page as a step toward finding a list of issues. The lack of explicit guidance or a clear path to the issues section would make ABI hesitant to proceed, affecting her motivation and confidence in navigating the page.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down the webpage aligns with ABI's information processing style, which involves gathering comprehensive information. The page contains a lot of text and sections that might provide more context or relevant information about the project. ABI would likely scroll down to see if there is any additional information that could help in finding the list of issues or where issues are located.</t>
+Why: Scrolling down the webpage aligns with ABI's comprehensive information processing style. ABI tends to gather all available information before making decisions, and scrolling down is a natural action to see if there is more relevant information further down the page. The page is not overwhelming and provides structured information, which would encourage ABI to scroll down to explore more details.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down the webpage, ABI will not find a list of issues or clear directions on where to find them. The page contains information about the project, technologies used, and contact details, but it does not provide any information about issues or where to find them. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, will not feel that they have made progress toward their goal of finding issues. The lack of relevant information about issues will likely leave ABI feeling uncertain and unmotivated.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down the webpage, ABI will not find a clear list of issues or a section specifically dedicated to issues for newcomers. The information provided is about the project, technologies used, and contact points, but it does not directly address the subgoal of finding issues. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, will not feel that she has made progress toward her goal and will not have all the information she needs to find issues for newcomers.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The issue icon on the left side is clearly labeled and visually distinct, making it relatively easy for ABI to identify. Given ABI's comprehensive information processing style, they are likely to notice the icon while scanning the page. Additionally, the icon is a common feature in repositories for tracking issues, which might be familiar to ABI. Therefore, ABI will likely know to click on the issue icon to find a list of issues or where issues are located.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The issue icon on the left side is clearly labeled "Issues," which directly aligns with ABI's subgoal of finding a list of issues. The icon is part of the navigation menu, which is a familiar interface element, making it easier for ABI to understand its purpose. Given ABI's preference for process-oriented learning, the clear labeling provides the necessary guidance to take this action confidently. The page is good enough for ABI to take this action because it provides a straightforward path to the desired information.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the issue icon, ABI will be directed to a page that clearly lists the issues, including their titles, creation dates, and statuses. This page provides comprehensive information about the issues, which aligns with ABI's information processing style. The clear presentation of issues will help ABI understand that they have made progress toward their goal of finding an issue to work on. The detailed list of issues will also provide ABI with the necessary information to choose an appropriate issue to work on, thus confirming that they did the right thing.</t>
+Why: After clicking on the "Issues" icon, ABI will land on a page that clearly lists the issues, including their titles, creation dates, and labels. This directly aligns with ABI's subgoal of finding a list of issues. The page is well-organized and provides comprehensive information about each issue, which suits ABI's preference for detailed information. ABI will know that she did the right thing and is making progress toward her goal because the page explicitly shows the issues, fulfilling her need for clear and structured information.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists various issues with their titles, creation dates, and statuses, which aligns with ABI's goal of finding an issue to work on. ABI, who prefers comprehensive information, will recognize that selecting an issue from this list is a logical step toward achieving the overall use case of finding an issue to work on. The detailed presentation of issues will help ABI understand that they are making progress toward their goal.</t>
+Why: Selecting an issue to work on is a logical and necessary step toward achieving the overall use case of finding an issue for a newcomer to work on. The page clearly lists various issues, providing titles, labels, and other relevant details, which aligns with ABI's comprehensive information processing style. This step directly contributes to ABI's goal, and the structured presentation of issues will motivate ABI to proceed with selecting an appropriate issue to work on.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page presents a clear and organized list of issues, each with a title, creation date, and status. This layout aligns with ABI's comprehensive information processing style, allowing them to read through the list and gather the necessary information to select an issue. The clear presentation and relevant details will help ABI understand what to do at this step and feel confident in taking the action of reading through the list to find an issue to work on.</t>
+Why: The page is well-organized and lists issues with clear titles, labels, and other relevant details. This structure aligns with ABI's comprehensive information processing style, allowing her to read through the list and gather the necessary information to make an informed decision. The clear presentation of issues will also motivate ABI to proceed with reading through the list, as it directly contributes to her goal of selecting an issue to work on. The page provides enough information for ABI to understand what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on this page. ABI, who prefers comprehensive information, might not feel they have all the necessary details to select an issue just by reading the titles and brief descriptions. They might need to click on each issue to get more information, which could be overwhelming and time-consuming. Additionally, ABI's low confidence in unfamiliar computing tasks might make them hesitant to proceed without more detailed information readily available. Therefore, ABI might not feel confident that they are making progress toward their goal or have all the information they need.</t>
+Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on the list page. ABI, who prefers comprehensive information, may not feel confident that she has all the necessary details to select an issue just by reading the titles and brief descriptions. She might need to click on individual issues to get more information, which could be overwhelming and affect her confidence. Therefore, ABI may not feel that she has made significant progress toward her goal or has all the information she needs just by reading through the list.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The page clearly lists the issues with clickable titles, which is a common and intuitive design for issue tracking systems. ABI, who prefers comprehensive information, will likely understand that clicking on an issue title will provide more detailed information about that issue. The clear and organized presentation of the issues will help ABI feel confident in taking the action of selecting or clicking on an issue to gather more information, making progress toward their goal of finding an issue to work on.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page is well-organized and clearly lists issues with clickable titles. ABI, who prefers comprehensive information, will understand that clicking on an issue title will provide more details about that issue. The interface is intuitive and familiar, which aligns with ABI's process-oriented learning style. The clear presentation and labeling of issues make it evident that clicking on an issue is the next logical step to gather more information, making the page good enough for ABI to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, ABI lands on a page with limited information about the issue. The page shows the issue title, status, creation date, and a brief description, but it lacks detailed information that ABI might need to understand the issue fully. ABI, who prefers comprehensive information, might not feel they have all the necessary details to determine if this is the right issue to work on. Additionally, the lack of detailed information might make ABI, who has low confidence in unfamiliar computing tasks, feel uncertain about their progress toward their goal. Therefore, ABI might not feel confident that they did the right thing or have all the information they need.</t>
+Why: After clicking on an issue, ABI lands on a page with limited information about the issue. The page lacks detailed descriptions, steps to reproduce, or any context that would help ABI understand the issue comprehensively. ABI, who prefers comprehensive information, will not feel that she has all the necessary details to proceed. Additionally, the lack of detailed information may affect her confidence in understanding and selecting the issue to work on. Therefore, ABI may not feel that she has made significant progress toward her goal or has all the information she needs.</t>
         </is>
       </c>
     </row>

--- a/outputs/PITTSBURG3.xlsx
+++ b/outputs/PITTSBURG3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or section specifically labeled for "issues" or "tasks for newcomers." ABI, who prefers comprehensive information and is risk-averse, would not likely consider this page as a step toward finding a list of issues. The lack of explicit guidance or a clear path to the issues section would make ABI hesitant to proceed, affecting her motivation and confidence in navigating the page.</t>
+Why: The page shown is a repository view, which lists files and directories but does not explicitly mention issues or where to find them. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not immediately recognize this page as a step toward finding issues. The page does not provide clear guidance or direct links to an "Issues" section, which would be necessary for ABI to feel confident in proceeding.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down the webpage aligns with ABI's comprehensive information processing style. ABI tends to gather all available information before making decisions, and scrolling down is a natural action to see if there is more relevant information further down the page. The page is not overwhelming and provides structured information, which would encourage ABI to scroll down to explore more details.</t>
+Why: Scrolling down the webpage aligns with ABI's comprehensive information processing style. ABI is likely to scroll down to gather more information and understand the context better. The page is not overwhelming and provides structured information, which can help ABI feel more confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down the webpage, ABI will not find a clear list of issues or a section specifically dedicated to issues for newcomers. The information provided is about the project, technologies used, and contact points, but it does not directly address the subgoal of finding issues. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, will not feel that she has made progress toward her goal and will not have all the information she needs to find issues for newcomers.</t>
+Why: After scrolling down the webpage, ABI will not find any information related to issues or where to find them. The page primarily contains a list of files and directories, along with some information about the FLOSSCoach project. There is no clear indication or link to an "Issues" section, which means ABI will not know if they are making progress toward their goal of finding issues for a newcomer to work on. This lack of clear guidance and relevant information will likely leave ABI feeling uncertain and unconfident about their progress.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The issue icon on the left side is clearly labeled "Issues," which directly aligns with ABI's subgoal of finding a list of issues. The icon is part of the navigation menu, which is a familiar interface element, making it easier for ABI to understand its purpose. Given ABI's preference for process-oriented learning, the clear labeling provides the necessary guidance to take this action confidently. The page is good enough for ABI to take this action because it provides a straightforward path to the desired information.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The issue icon on the left side is clearly labeled and visually distinct, making it easier for ABI to identify it as a potential link to the list of issues. Given ABI's comprehensive information processing style, they are likely to notice this icon while scanning the page. Additionally, the icon is a common symbol for issues in many repositories, which can help ABI feel more confident in clicking it, even with their lower computer self-efficacy. The page provides enough context for ABI to understand that clicking the issue icon is a logical next step toward finding the list of issues.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Issues" icon, ABI will land on a page that clearly lists the issues, including their titles, creation dates, and labels. This directly aligns with ABI's subgoal of finding a list of issues. The page is well-organized and provides comprehensive information about each issue, which suits ABI's preference for detailed information. ABI will know that she did the right thing and is making progress toward her goal because the page explicitly shows the issues, fulfilling her need for clear and structured information.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the issue icon, ABI will land on a page that clearly lists issues, which directly aligns with their goal of finding an issue for a newcomer to work on. The page is well-organized, showing open issues with relevant details such as titles, creation dates, and labels. This clear presentation will help ABI understand that they have made progress toward their goal and provide the necessary information to proceed further. The structured format and familiar layout will also boost ABI's confidence in navigating the page.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Selecting an issue to work on is a logical and necessary step toward achieving the overall use case of finding an issue for a newcomer to work on. The page clearly lists various issues, providing titles, labels, and other relevant details, which aligns with ABI's comprehensive information processing style. This step directly contributes to ABI's goal, and the structured presentation of issues will motivate ABI to proceed with selecting an appropriate issue to work on.</t>
+Why: Selecting an issue to work on is a logical next step toward achieving the overall use case of finding an issue for a newcomer to work on. The page clearly lists various issues, which aligns with ABI's motivation to accomplish their task. The structured and detailed presentation of issues also supports ABI's comprehensive information processing style, making it easier for them to understand that selecting an issue is a necessary step in the process.</t>
         </is>
       </c>
     </row>
@@ -480,34 +480,34 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page is well-organized and lists issues with clear titles, labels, and other relevant details. This structure aligns with ABI's comprehensive information processing style, allowing her to read through the list and gather the necessary information to make an informed decision. The clear presentation of issues will also motivate ABI to proceed with reading through the list, as it directly contributes to her goal of selecting an issue to work on. The page provides enough information for ABI to understand what to do at this step.</t>
+Why: The page is well-organized and clearly lists the issues, making it straightforward for ABI to read through the list. Given ABI's comprehensive information processing style, they will likely understand that reading through the list is a necessary step to gather information and select an appropriate issue to work on. The structured format and detailed presentation of each issue will help ABI feel confident in taking this action, as it aligns with their motivation to find a suitable issue for a newcomer.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: By reading through the list of issues, ABI will be able to gather detailed information about each issue, such as the title, creation date, and any labels or tags. This aligns with ABI's comprehensive information processing style, allowing them to feel confident that they are making progress toward their goal. The structured and clear presentation of the issues will help ABI understand that they are on the right track and provide the necessary information to select an appropriate issue to work on. This action directly supports ABI's motivation to find a suitable issue for a newcomer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page clearly lists issues with clickable titles, making it intuitive for ABI to understand that clicking on an issue will provide more detailed information. This aligns with ABI's comprehensive information processing style, as they will want to gather all relevant details about an issue before deciding to work on it. The structured and familiar layout of the issue list supports ABI's motivation to find a suitable issue for a newcomer, making it clear that clicking on an issue is the next logical step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on the list page. ABI, who prefers comprehensive information, may not feel confident that she has all the necessary details to select an issue just by reading the titles and brief descriptions. She might need to click on individual issues to get more information, which could be overwhelming and affect her confidence. Therefore, ABI may not feel that she has made significant progress toward her goal or has all the information she needs just by reading through the list.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page is well-organized and clearly lists issues with clickable titles. ABI, who prefers comprehensive information, will understand that clicking on an issue title will provide more details about that issue. The interface is intuitive and familiar, which aligns with ABI's process-oriented learning style. The clear presentation and labeling of issues make it evident that clicking on an issue is the next logical step to gather more information, making the page good enough for ABI to take this action confidently.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, ABI lands on a page with limited information about the issue. The page lacks detailed descriptions, steps to reproduce, or any context that would help ABI understand the issue comprehensively. ABI, who prefers comprehensive information, will not feel that she has all the necessary details to proceed. Additionally, the lack of detailed information may affect her confidence in understanding and selecting the issue to work on. Therefore, ABI may not feel that she has made significant progress toward her goal or has all the information she needs.</t>
+Why: After clicking on an issue, ABI lands on a page that provides some information about the issue, but it is not comprehensive. The page lacks detailed descriptions, steps to reproduce, or any context that would help ABI understand the issue fully. Given ABI's comprehensive information processing style, they may feel that the information provided is insufficient to make an informed decision. Additionally, the lack of detailed guidance may affect ABI's confidence in their ability to proceed, given their lower computer self-efficacy. Therefore, ABI may not feel that they have made significant progress toward their goal or have all the information they need.</t>
         </is>
       </c>
     </row>
